--- a/data/CCD-CCS/CCID.xlsx
+++ b/data/CCD-CCS/CCID.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1674EB84-9668-4C18-8EF8-A255EB86BD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="61">
   <si>
     <t>পুনশ্চ</t>
   </si>
@@ -196,13 +197,16 @@
   </si>
   <si>
     <t>মরি-মরি</t>
+  </si>
+  <si>
+    <t>তবুও</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -239,6 +243,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -285,7 +297,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -317,9 +329,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -351,6 +381,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -526,16 +574,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -543,7 +591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -551,7 +599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -559,7 +607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -567,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -575,7 +623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -583,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -591,7 +639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -599,7 +647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -607,7 +655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -615,7 +663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -623,7 +671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -631,7 +679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -639,7 +687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -647,7 +695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -655,7 +703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -663,7 +711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -671,7 +719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -679,7 +727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -687,7 +735,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -695,7 +743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -703,7 +751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -711,7 +759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -719,7 +767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -727,7 +775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -735,7 +783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -743,7 +791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -751,7 +799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -759,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -767,7 +815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -775,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -783,7 +831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -791,7 +839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>30</v>
       </c>
@@ -799,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -807,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>32</v>
       </c>
@@ -815,7 +863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>33</v>
       </c>
@@ -823,15 +871,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>34</v>
       </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>59</v>
       </c>
@@ -839,7 +895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>35</v>
       </c>
@@ -847,7 +903,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>36</v>
       </c>
@@ -855,7 +911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>37</v>
       </c>
@@ -863,7 +919,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>38</v>
       </c>
@@ -871,7 +927,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>58</v>
       </c>
@@ -879,7 +935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>39</v>
       </c>
@@ -887,7 +943,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>40</v>
       </c>
@@ -895,7 +951,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>41</v>
       </c>
@@ -903,7 +959,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -911,7 +967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -919,7 +975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -927,7 +983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>45</v>
       </c>
@@ -935,7 +991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>46</v>
       </c>
@@ -943,7 +999,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -951,7 +1007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -959,7 +1015,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>48</v>
       </c>
@@ -967,7 +1023,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>49</v>
       </c>
@@ -975,7 +1031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>50</v>
       </c>
@@ -983,7 +1039,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -991,7 +1047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>52</v>
       </c>
@@ -999,7 +1055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>53</v>
       </c>
@@ -1007,7 +1063,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>54</v>
       </c>
@@ -1015,7 +1071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>55</v>
       </c>
@@ -1023,7 +1079,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>56</v>
       </c>
@@ -1031,7 +1087,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>57</v>
       </c>
@@ -1046,24 +1102,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/CCD-CCS/CCID.xlsx
+++ b/data/CCD-CCS/CCID.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1674EB84-9668-4C18-8EF8-A255EB86BD50}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F7BA82E-F489-400E-88E0-7D2C3B5190CC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,9 +577,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
